--- a/Calculations/LT8490 boost-01.xlsx
+++ b/Calculations/LT8490 boost-01.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="PowerPart" sheetId="1" r:id="rId1"/>
-    <sheet name="Nordic" sheetId="2" r:id="rId2"/>
-    <sheet name="Расчет радиатора" sheetId="3" r:id="rId3"/>
-    <sheet name="Расчет диода" sheetId="4" r:id="rId4"/>
+    <sheet name="Температура корпуса" sheetId="5" r:id="rId2"/>
+    <sheet name="Nordic" sheetId="2" r:id="rId3"/>
+    <sheet name="Расчет радиатора" sheetId="3" r:id="rId4"/>
+    <sheet name="Расчет диода" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -22,7 +23,268 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B114" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Vpanel*Ipanel*0.98/Vout
+с небольшим запасом</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+частота преобразования</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+для ключей 150В</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+100V ключ BSC060N10NS3 G</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A74" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Когда знаешь индуктивность</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B79" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+выбираем вручную из стандартных значений</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A88" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+постоянно открыт в режиме boost</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B95" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ноль, потому что у нас бустер</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A104" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+бустер</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A118" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+выпрямитель</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B125" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B115" authorId="0" shapeId="0">
+    <comment ref="B126" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B116" authorId="0" shapeId="0">
+    <comment ref="B127" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +362,118 @@
         </r>
       </text>
     </comment>
-    <comment ref="B158" authorId="0" shapeId="0">
+    <comment ref="B129" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tjm - P*RthJC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B133" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+When solar charging a lithium-ion battery without
+time limits it is recommended that the Stage 2 voltage
+limit NOT exceed 95% of the lithium-ion maximum cell
+voltage. Since this configuration can charge indefinitely,
+following this guideline keeps the lifetime of the batteries
+from degrading quickly.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A137" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+RFBOUT2 is often selected to be between 4.99kΩ and
+49.9kΩ. Choosing higher values for RFBOUT2 reduces
+the amount of current draw from the battery through the
+feedback network.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A154" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+VX3 indicates the actual 25°C VS2 voltage using the
+selected resistors</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B195" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="176">
   <si>
     <t>Расчет boost конвертера на LT8490</t>
   </si>
@@ -408,9 +781,6 @@
     <t>RDACO2=</t>
   </si>
   <si>
-    <t>//берем из таблицы</t>
-  </si>
-  <si>
     <t>CDACO=</t>
   </si>
   <si>
@@ -465,12 +835,6 @@
     <t>//ток в рабочей точке панели</t>
   </si>
   <si>
-    <t>//от источника питания, nom = 12V</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>DIODE</t>
   </si>
   <si>
@@ -576,29 +940,127 @@
     <t>8-PowerTDFN, 5 Leads</t>
   </si>
   <si>
-    <t>//full charge 4.2V*11cells</t>
-  </si>
-  <si>
     <t>Панель 5x7</t>
   </si>
   <si>
-    <t>//nominal voltage 3.7V*11cells</t>
-  </si>
-  <si>
-    <t>//max ток зарядки (4.4 A nominal)</t>
-  </si>
-  <si>
     <t>//Power Stage Designer Tool</t>
   </si>
   <si>
     <t>exclude</t>
+  </si>
+  <si>
+    <t>RthJC=</t>
+  </si>
+  <si>
+    <t>K/W</t>
+  </si>
+  <si>
+    <t>//Thermal resistance, junction - case</t>
+  </si>
+  <si>
+    <t>Tcm1=</t>
+  </si>
+  <si>
+    <t>//case temperature</t>
+  </si>
+  <si>
+    <t>Temperature of heat case</t>
+  </si>
+  <si>
+    <t>Tc=</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>С</t>
+    </r>
+  </si>
+  <si>
+    <t>Temperature of junction</t>
+  </si>
+  <si>
+    <t>Расчет температуры кристалла транзистора</t>
+  </si>
+  <si>
+    <t>по температуре его корпуса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tj = </t>
+  </si>
+  <si>
+    <t>Пересчет Rsense (стр. 22 LT8705)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rsense = </t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>//от источника питания</t>
+  </si>
+  <si>
+    <t>N=</t>
+  </si>
+  <si>
+    <t>//число ячеек АКБ</t>
+  </si>
+  <si>
+    <t>//nominal voltage 3.7V*Ncells</t>
+  </si>
+  <si>
+    <t>//full charge 4.2V*Ncells</t>
+  </si>
+  <si>
+    <t>//max ток зарядки</t>
+  </si>
+  <si>
+    <t>Tсm3=</t>
+  </si>
+  <si>
+    <t>Tсm4=</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t>Vx3=</t>
+  </si>
+  <si>
+    <t>X=</t>
+  </si>
+  <si>
+    <t>N1=</t>
+  </si>
+  <si>
+    <t>N2=</t>
+  </si>
+  <si>
+    <t>Для ключей 100V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +1132,54 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -685,7 +1195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -708,6 +1218,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -716,7 +1288,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -728,6 +1300,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -752,13 +1336,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -799,13 +1383,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -846,13 +1430,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -893,13 +1477,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>129418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -940,13 +1524,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>164235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -987,13 +1571,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>1142999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1034,13 +1618,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>16341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1081,13 +1665,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>188787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1128,13 +1712,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>46293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1175,13 +1759,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>36458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1222,13 +1806,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>41306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1269,13 +1853,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>189140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1316,13 +1900,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>31638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1363,13 +1947,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>179326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1408,62 +1992,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>132912</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2733674" y="23441025"/>
-          <a:ext cx="2962275" cy="504387"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>110350</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1474,7 +2011,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1504,13 +2041,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>152816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1521,7 +2058,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1551,13 +2088,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1568,7 +2105,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1598,13 +2135,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1615,7 +2152,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1645,13 +2182,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>94780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1662,7 +2199,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1692,13 +2229,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>103133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1709,7 +2246,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1739,13 +2276,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>181232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>428051</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>37620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1756,7 +2293,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1777,13 +2314,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>24170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>352013</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>112948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1794,7 +2331,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1815,13 +2352,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>6927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>294699</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>75730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1832,7 +2369,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1853,13 +2390,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>570992</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>127954</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1870,7 +2407,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1891,13 +2428,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>542555</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>95086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1908,7 +2445,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1925,10 +2462,460 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523355</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="3810000"/>
+          <a:ext cx="4161905" cy="4809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37515</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>117064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="13925550"/>
+          <a:ext cx="3037890" cy="860014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>418371</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>96199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="14744700"/>
+          <a:ext cx="3323496" cy="781999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323060</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715249" y="16383000"/>
+          <a:ext cx="3923511" cy="2171838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>513874</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>114058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="25422225"/>
+          <a:ext cx="3809524" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>18614</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>7661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="26250901"/>
+          <a:ext cx="2799914" cy="1950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133009</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>149845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="29156025"/>
+          <a:ext cx="1961809" cy="521320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>595499</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>513858</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>75774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2767199" y="29698950"/>
+          <a:ext cx="2966359" cy="2571324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10401300"/>
+          <a:ext cx="2171700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="11420475"/>
+          <a:ext cx="1524000" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10668000"/>
+          <a:ext cx="1952625" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2047,7 +3034,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2166,7 +3153,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2496,10 +3483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,7 +3520,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,18 +3528,18 @@
         <v>77</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>24</v>
@@ -2561,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,798 +3556,1172 @@
         <v>78</v>
       </c>
       <c r="B11">
-        <f>8.5</f>
-        <v>8.5</v>
+        <f>8.22</f>
+        <v>8.2200000000000006</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="B12">
-        <f>3.7*11</f>
-        <v>40.700000000000003</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <f>4.2*11</f>
-        <v>46.2</v>
+        <f>3.7*B12</f>
+        <v>40.700000000000003</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B14">
+        <f>4.2*B12</f>
+        <v>46.2</v>
+      </c>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>202</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>202</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <f>150</f>
         <v>150</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <v>50</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22">
+        <v>0.6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <f>12.5</f>
         <v>12.5</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>42</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>6.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B30">
-        <f>(43750/B15-1)</f>
+      <c r="B32">
+        <f>(43750/B16-1)</f>
         <v>215.58415841584159</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B34">
-        <f>(1-B9/B13)*100</f>
-        <v>61.038961038961048</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B36">
+        <f>(1-B9/B14)*100</f>
+        <v>54.54545454545454</v>
+      </c>
+      <c r="C36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>100</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B42">
-        <f>(B13*B14)/(B9*(100/40-0.5))</f>
-        <v>5.1333333333333337</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B44">
+        <f>(B14*B15)/(B9*(100/40-0.5))</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48">
-        <f>2*B37*B9/((2*B14*B13)+(B42*B9))</f>
-        <v>7.7922077922077921</v>
-      </c>
-      <c r="C48" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B50" s="15">
+        <f>2*B39*B9/((2*B15*B14)+(B44*B9))</f>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>19</v>
       </c>
-      <c r="B52">
-        <f>B48*1.3</f>
-        <v>10.129870129870129</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B54" s="15">
+        <f>B50/1.3</f>
+        <v>6.9930069930069934</v>
+      </c>
+      <c r="C54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="14">
         <v>15</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>27</v>
       </c>
-      <c r="B57">
-        <f>B9*B34/100  /  (2*B15*1000*(B37/B53/1000-B14*B13/B9))  * 10^6</f>
-        <v>-2.6506410039500192</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B59">
+        <f>B9*B36/100  /  (2*B16*1000*(B39/B55/1000-B15*B14/B9))  * 10^6</f>
+        <v>-3.224355794184421</v>
+      </c>
+      <c r="C59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>32</v>
       </c>
-      <c r="B64">
-        <f>(B13-(B9*B13/(B13-B9))*B53/1000)/(0.08*B15*1000)  * 10^6</f>
-        <v>2831.5383400042133</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B66">
+        <f>(B14-(B9*B14/(B14-B9))*B55/1000)/(0.08*B16*1000)  * 10^6</f>
+        <v>2823.1745049504952</v>
+      </c>
+      <c r="C66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>27</v>
       </c>
-      <c r="B70">
+      <c r="B72">
         <v>22</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
         <v>30</v>
       </c>
-      <c r="D70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="D72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <f>(B36/100)*B9 / (B16*1000*B72*10^(-6))</f>
+        <v>2.577530480320759</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78">
+        <f>(2*B39/1000*B9)/((2*B15*B13)+(B76*B9))*1000</f>
+        <v>11.060544522827971</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>35</v>
       </c>
-      <c r="B75">
-        <f>(B20-B16)/B21</f>
+      <c r="B85">
+        <f>(B21-B17)/B23</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C85" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="I88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="I89" s="17"/>
+      <c r="J89" s="18"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>59</v>
       </c>
-      <c r="B80">
-        <f>(B13/B9*B14)^2*B22/1000*1.5</f>
-        <v>1.9763333333333337</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B90">
+        <f>(B14/B9*B15)^2*B24/1000*1.5</f>
+        <v>1.4520000000000002</v>
+      </c>
+      <c r="C90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="I90" s="19">
+        <f>(B14/B9*B15)^2*B25/1000*1.5</f>
+        <v>0.75504000000000004</v>
+      </c>
+      <c r="J90" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I91" s="19"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I93" s="19"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>52</v>
       </c>
-      <c r="B84">
-        <f>B9*B14*B15*1000*20*10^(-9)</f>
-        <v>0.29088000000000003</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B94">
+        <f>B9*B15*B16*1000*20*10^(-9)</f>
+        <v>0.33935999999999999</v>
+      </c>
+      <c r="C94" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>55</v>
       </c>
-      <c r="B91">
-        <f>B80+B84</f>
-        <v>2.2672133333333337</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B102">
+        <f>B90+B95</f>
+        <v>1.4520000000000002</v>
+      </c>
+      <c r="C102" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>60</v>
       </c>
-      <c r="B95">
-        <f>(B13-B9)*B13*B14^2*B22/1000*1.5 / B9^2</f>
-        <v>1.2063333333333337</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B106">
+        <f>(B14-B9)*B14*B15^2*B24/1000*1.5 / B9^2</f>
+        <v>0.79200000000000026</v>
+      </c>
+      <c r="C106" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="I106" s="19">
+        <f>(B14-B9)*B14*B15^2*B25/1000*1.5 / B9^2</f>
+        <v>0.41184000000000009</v>
+      </c>
+      <c r="J106" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>52</v>
       </c>
-      <c r="B98">
-        <f>B13^2*B14*B15*1000*20^(-9)/B9</f>
-        <v>1.8713406250000001E-4</v>
-      </c>
-      <c r="C98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101">
-        <f>B95+B98</f>
-        <v>1.2065204673958336</v>
-      </c>
-      <c r="C101" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>66</v>
-      </c>
       <c r="B109">
-        <f>B13/B9*B14^2*1.5*B22/1000</f>
-        <v>0.77000000000000013</v>
+        <f>B14^2*B15*B16*1000*20^(-9)/B9</f>
+        <v>1.6040062500000002E-4</v>
       </c>
       <c r="C109" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112">
+        <f>B106+B109</f>
+        <v>0.79216040062500026</v>
+      </c>
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="I112" s="19">
+        <f>I106+B109</f>
+        <v>0.4120004006250001</v>
+      </c>
+      <c r="J112" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>63</v>
+      </c>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>64</v>
+      </c>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I117" s="19"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120">
+        <f>B14/B9*B15^2*1.5*B24/1000</f>
+        <v>0.66</v>
+      </c>
+      <c r="C120" t="s">
+        <v>48</v>
+      </c>
+      <c r="I120" s="19">
+        <f>B14/B9*B15^2*1.5*B25/1000</f>
+        <v>0.34320000000000006</v>
+      </c>
+      <c r="J120" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>67</v>
       </c>
-      <c r="B114">
-        <f>B91*B21+B16</f>
-        <v>153.3606666666667</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B125">
+        <f>B102*B23+B17</f>
+        <v>112.60000000000001</v>
+      </c>
+      <c r="C125" t="s">
         <v>46</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D125" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="I125" s="19">
+        <f>I90*B23+B17</f>
+        <v>77.75200000000001</v>
+      </c>
+      <c r="J125" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>70</v>
       </c>
-      <c r="B115">
-        <f>B101*B21+B16</f>
-        <v>100.32602336979168</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B126">
+        <f>B112*B23+B17</f>
+        <v>79.608020031250021</v>
+      </c>
+      <c r="C126" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="I126" s="19">
+        <f>I112*B23+B17</f>
+        <v>60.600020031250004</v>
+      </c>
+      <c r="J126" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K126">
+        <f>B126-I126</f>
+        <v>19.008000000000017</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>71</v>
       </c>
-      <c r="B116">
-        <f>B109*B21+B16</f>
-        <v>78.5</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B127">
+        <f>B120*B23+B17</f>
+        <v>73</v>
+      </c>
+      <c r="C127" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>74</v>
-      </c>
-      <c r="B123">
-        <v>20</v>
-      </c>
-      <c r="C123" t="s">
-        <v>75</v>
-      </c>
-      <c r="D123" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>76</v>
-      </c>
-      <c r="B125">
-        <f>B123*((B13*1.241/1.211-0.128)-1)</f>
-        <v>924.33017341040465</v>
-      </c>
-      <c r="C125" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>76</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>90</v>
-      </c>
-      <c r="B128">
-        <f>115</f>
-        <v>115</v>
-      </c>
-      <c r="C128" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" t="s">
-        <v>91</v>
-      </c>
+      <c r="I127" s="19">
+        <f>I120*B23+B17</f>
+        <v>57.160000000000004</v>
+      </c>
+      <c r="J127" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K127">
+        <f>B127-I127</f>
+        <v>15.839999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I128" s="21"/>
+      <c r="J128" s="22"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="B129">
-        <f>22.6</f>
-        <v>22.6</v>
+        <f>B125-B102*$B$22</f>
+        <v>111.72880000000001</v>
       </c>
       <c r="C129" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D129" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="B130">
-        <v>100</v>
+        <f>B126-B112*$B$22</f>
+        <v>79.132723790875019</v>
       </c>
       <c r="C130" t="s">
-        <v>93</v>
-      </c>
-      <c r="D130" t="s">
-        <v>91</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131">
+        <f>B127-B120*$B$22</f>
+        <v>72.603999999999999</v>
+      </c>
+      <c r="C131" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133">
+        <f>B14*0.95</f>
+        <v>43.89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>74</v>
+      </c>
+      <c r="B137">
+        <v>20000</v>
+      </c>
+      <c r="C137" t="s">
+        <v>161</v>
+      </c>
+      <c r="D137" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139">
+        <f>B137*((B14*(1.241/1.211-0.128)-1))</f>
+        <v>808618.17341040459</v>
+      </c>
+      <c r="C139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140">
+        <f>806000</f>
+        <v>806000</v>
+      </c>
+      <c r="C140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>90</v>
+      </c>
+      <c r="B142">
+        <f>B140*B137*0.833/((B137*B14*1.241/1.211)-B137-B140)</f>
+        <v>111075.69474992831</v>
+      </c>
+      <c r="C142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>111000</v>
+      </c>
+      <c r="C143" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144">
+        <f>0.2*B143</f>
+        <v>22200</v>
+      </c>
+      <c r="C144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <f>22100</f>
+        <v>22100</v>
+      </c>
+      <c r="C145" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>91</v>
+      </c>
+      <c r="B146">
+        <f>1/(500*B145)*10^(9)</f>
+        <v>90.497737556561077</v>
+      </c>
+      <c r="C146" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="10"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154">
+        <f>B140/(B145+B143)*(B156-1.89)</f>
+        <v>45.902549436513901</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B156">
+        <f>1.211*(1+(B145+B143)/B137+(B145+B143)/B140)</f>
+        <v>9.4701852729528539</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B158">
+        <f>(B156-1.89)/(B156-3.3)</f>
+        <v>1.2285182596024737</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="10"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160">
+        <f>1-1.89/B156</f>
+        <v>0.80042629098314488</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="10"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="10"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="10"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>97</v>
-      </c>
-      <c r="B136">
+      <c r="B173">
         <f>100*((1+4.47/(B10-6))/(1+5.593/(B10-6)))</f>
         <v>95.240113593014883</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C173" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="10">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="10">
         <f>1+94.2</f>
         <v>95.2</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C174" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>97</v>
+      </c>
+      <c r="B178">
+        <f>2.75*B174/(B10-6)</f>
+        <v>14.544444444444444</v>
+      </c>
+      <c r="C178" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>14.3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>98</v>
       </c>
-      <c r="B141">
-        <f>2.75*B137/(B10-6)</f>
-        <v>14.544444444444444</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B181">
+        <f>1/(1/(100-B174)-1/B179)</f>
+        <v>7.2252631578947302</v>
+      </c>
+      <c r="C181" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B142">
-        <v>14.3</v>
-      </c>
-      <c r="C142" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>99</v>
+      </c>
+      <c r="B184">
+        <f>0.2*B179</f>
+        <v>2.8600000000000003</v>
+      </c>
+      <c r="C184" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>99</v>
-      </c>
-      <c r="B144">
-        <f>1/(1/(100-B137)-1/B142)</f>
-        <v>7.2252631578947302</v>
-      </c>
-      <c r="C144" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B145">
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>100</v>
       </c>
-      <c r="B147">
-        <f>0.2*B142</f>
-        <v>2.8600000000000003</v>
-      </c>
-      <c r="C147" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B186">
+        <f>1/(1000*B184*1000)*10^6</f>
+        <v>0.34965034965034958</v>
+      </c>
+      <c r="C186" t="s">
         <v>101</v>
       </c>
-      <c r="B149">
-        <f>1/(1000*B147*1000)*10^6</f>
-        <v>0.34965034965034958</v>
-      </c>
-      <c r="C149" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B150">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B187">
         <f>0.47</f>
         <v>0.47</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C187" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>104</v>
+      </c>
+      <c r="B192">
+        <f>0.0497/B15*1000</f>
+        <v>12.425000000000001</v>
+      </c>
+      <c r="C192" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B195">
+        <f>1208/(B15*1*B193/1000)/1000</f>
+        <v>25.166666666666668</v>
+      </c>
+      <c r="C195" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>25</v>
+      </c>
+      <c r="C196" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>105</v>
       </c>
-      <c r="B155">
-        <f>0.0497/B14*1000</f>
-        <v>12.425000000000001</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="B198">
+        <f>24.3*B196/(B196-24.3)</f>
+        <v>867.85714285714369</v>
+      </c>
+      <c r="C198" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>107</v>
+      </c>
+      <c r="B208">
+        <f>0.0505/(1.3*B11) * 1000</f>
+        <v>4.725809470335018</v>
+      </c>
+      <c r="C208" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B156">
-        <v>12</v>
-      </c>
-      <c r="C156" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>104</v>
-      </c>
-      <c r="B158">
-        <f>1208/(B14*1*B156/1000)/1000</f>
-        <v>25.166666666666668</v>
-      </c>
-      <c r="C158" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B159">
-        <v>25</v>
-      </c>
-      <c r="C159" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>106</v>
-      </c>
-      <c r="B161">
-        <f>24.3*B159/(B159-24.3)</f>
-        <v>867.85714285714369</v>
-      </c>
-      <c r="C161" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>108</v>
-      </c>
-      <c r="B171">
-        <f>0.0505/(1.3*B11) * 1000</f>
-        <v>4.5701357466063355</v>
-      </c>
-      <c r="C171" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B172">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209">
         <v>5</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C209" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1"/>
+    <hyperlink ref="D32" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
@@ -3371,9 +4732,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="11"/>
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="13">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3411,7 +4828,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -3508,8 +4925,8 @@
         <v>82</v>
       </c>
       <c r="B22">
-        <f>0.3*B11/(1-PowerPart!B34/100)</f>
-        <v>3.0800000000000005</v>
+        <f>0.3*B11/(1-PowerPart!B36/100)</f>
+        <v>2.6399999999999997</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3525,8 +4942,8 @@
         <v>84</v>
       </c>
       <c r="B29">
-        <f>B6*PowerPart!B34/100/((Nordic!B12*1000)*Nordic!B22)*10^6</f>
-        <v>17.659465389952722</v>
+        <f>B6*PowerPart!B36/100/((Nordic!B12*1000)*Nordic!B22)*10^6</f>
+        <v>18.410932002291144</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -3559,7 +4976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -3574,12 +4991,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,17 +5031,17 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <f>150</f>
@@ -3636,7 +5053,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B14">
         <f>1.6</f>
@@ -3646,12 +5063,12 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15">
         <v>70</v>
@@ -3660,12 +5077,12 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <f>0.56</f>
@@ -3675,20 +5092,20 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B19">
         <f>0.5</f>
@@ -3698,12 +5115,12 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3712,12 +5129,12 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B22">
         <f>B16*B7</f>
@@ -3729,7 +5146,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B24">
         <f>B22*B15+B8</f>
@@ -3739,12 +5156,12 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B25">
         <f>B22*B14+B24</f>
@@ -3754,17 +5171,17 @@
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B35">
         <f>(B13-B8)/B22-B14-B19</f>
@@ -3774,7 +5191,7 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,12 +5202,12 @@
         <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B38">
         <f>B22*B36+B8</f>
@@ -3800,12 +5217,12 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B39">
         <f>B22*B19+B38</f>
@@ -3815,12 +5232,12 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <f>B22*B14+B39</f>
@@ -3830,7 +5247,7 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3840,7 +5257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -3852,12 +5269,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3892,20 +5309,20 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <f>150</f>
@@ -3931,7 +5348,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <f>0.45</f>
@@ -3941,12 +5358,12 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <f>B16*B7</f>
@@ -3958,7 +5375,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22">
         <f>B19*B15+B8</f>
@@ -3968,7 +5385,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Calculations/LT8490 boost-01.xlsx
+++ b/Calculations/LT8490 boost-01.xlsx
@@ -370,7 +370,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:</t>
         </r>
@@ -379,7 +380,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Tjm - P*RthJC</t>
@@ -504,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="177">
   <si>
     <t>Расчет boost конвертера на LT8490</t>
   </si>
@@ -730,15 +732,9 @@
     <t>Select RFBOUT2</t>
   </si>
   <si>
-    <t>RFBOUT2=</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
-    <t>RFBOUT1=</t>
-  </si>
-  <si>
     <t>Vin(min)=</t>
   </si>
   <si>
@@ -773,12 +769,6 @@
   </si>
   <si>
     <t>//из таблицы</t>
-  </si>
-  <si>
-    <t>RDACO1=</t>
-  </si>
-  <si>
-    <t>RDACO2=</t>
   </si>
   <si>
     <t>CDACO=</t>
@@ -1055,12 +1045,27 @@
   <si>
     <t>Для ключей 100V</t>
   </si>
+  <si>
+    <t>15||25</t>
+  </si>
+  <si>
+    <t>RFBOUT1 (R18)=</t>
+  </si>
+  <si>
+    <t>RFBOUT2 (R27)=</t>
+  </si>
+  <si>
+    <t>RDACO1(R22)=</t>
+  </si>
+  <si>
+    <t>RDACO2(R23)=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,27 +1138,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1175,6 +1159,15 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1301,17 +1294,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3485,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N122" sqref="N122"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3520,12 +3513,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>21</v>
@@ -3534,12 +3527,12 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <v>24</v>
@@ -3548,12 +3541,12 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <f>8.22</f>
@@ -3563,18 +3556,18 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3589,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3604,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,7 +3612,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3672,16 +3665,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B22">
         <v>0.6</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3735,7 +3728,7 @@
       <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <f>(43750/B16-1)</f>
         <v>215.58415841584159</v>
       </c>
@@ -3755,7 +3748,7 @@
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <f>(1-B9/B14)*100</f>
         <v>54.54545454545454</v>
       </c>
@@ -3767,7 +3760,7 @@
       <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>100</v>
       </c>
       <c r="C39" t="s">
@@ -3799,7 +3792,7 @@
       <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <f>(B14*B15)/(B9*(100/40-0.5))</f>
         <v>4.4000000000000004</v>
       </c>
@@ -3816,7 +3809,7 @@
       <c r="A50" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="14">
         <f>2*B39*B9/((2*B15*B14)+(B44*B9))</f>
         <v>9.0909090909090917</v>
       </c>
@@ -3833,7 +3826,7 @@
       <c r="A54" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <f>B50/1.3</f>
         <v>6.9930069930069934</v>
       </c>
@@ -3842,7 +3835,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="14">
+      <c r="B55" s="22">
         <v>15</v>
       </c>
       <c r="C55" t="s">
@@ -3858,7 +3851,7 @@
       <c r="A59" t="s">
         <v>27</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="14">
         <f>B9*B36/100  /  (2*B16*1000*(B39/B55/1000-B15*B14/B9))  * 10^6</f>
         <v>-3.224355794184421</v>
       </c>
@@ -3875,7 +3868,7 @@
       <c r="A66" t="s">
         <v>32</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="14">
         <f>(B14-(B9*B14/(B14-B9))*B55/1000)/(0.08*B16*1000)  * 10^6</f>
         <v>2823.1745049504952</v>
       </c>
@@ -3892,19 +3885,19 @@
       <c r="A72" t="s">
         <v>27</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>22</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3921,9 +3914,9 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78">
+        <v>156</v>
+      </c>
+      <c r="B78" s="14">
         <f>(2*B39/1000*B9)/((2*B15*B13)+(B76*B9))*1000</f>
         <v>11.060544522827971</v>
       </c>
@@ -3938,6 +3931,9 @@
       <c r="C79" t="s">
         <v>20</v>
       </c>
+      <c r="D79" s="11" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -3948,7 +3944,7 @@
       <c r="A85" t="s">
         <v>35</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <f>(B21-B17)/B23</f>
         <v>2.2000000000000002</v>
       </c>
@@ -3961,103 +3957,103 @@
         <v>57</v>
       </c>
       <c r="I88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>61</v>
       </c>
-      <c r="I89" s="17"/>
-      <c r="J89" s="18"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="17"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>59</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <f>(B14/B9*B15)^2*B24/1000*1.5</f>
         <v>1.4520000000000002</v>
       </c>
       <c r="C90" t="s">
         <v>48</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I90" s="18">
         <f>(B14/B9*B15)^2*B25/1000*1.5</f>
         <v>0.75504000000000004</v>
       </c>
-      <c r="J90" s="20" t="s">
+      <c r="J90" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="19"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>51</v>
       </c>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="19"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="19"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>52</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="14">
         <f>B9*B15*B16*1000*20*10^(-9)</f>
         <v>0.33935999999999999</v>
       </c>
       <c r="C94" t="s">
         <v>48</v>
       </c>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="19"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B95">
+      <c r="B95" s="3">
         <v>0</v>
       </c>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="19"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="19"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>53</v>
       </c>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="19"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>54</v>
       </c>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="19"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="19"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="19"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>56</v>
       </c>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="19"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -4070,26 +4066,26 @@
       <c r="C102" t="s">
         <v>48</v>
       </c>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="19"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="19"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="19"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>61</v>
       </c>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="19"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -4102,21 +4098,21 @@
       <c r="C106" t="s">
         <v>48</v>
       </c>
-      <c r="I106" s="19">
+      <c r="I106" s="18">
         <f>(B14-B9)*B14*B15^2*B25/1000*1.5 / B9^2</f>
         <v>0.41184000000000009</v>
       </c>
-      <c r="J106" s="20" t="s">
+      <c r="J106" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="19"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="19"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -4129,16 +4125,16 @@
       <c r="C109" t="s">
         <v>48</v>
       </c>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="19"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="19"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="19"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -4151,50 +4147,50 @@
       <c r="C112" t="s">
         <v>48</v>
       </c>
-      <c r="I112" s="19">
+      <c r="I112" s="18">
         <f>I106+B109</f>
         <v>0.4120004006250001</v>
       </c>
-      <c r="J112" s="20" t="s">
+      <c r="J112" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="19"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>63</v>
       </c>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="19"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>64</v>
       </c>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="19"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="19"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="19"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="19"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="19"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -4207,32 +4203,32 @@
       <c r="C120" t="s">
         <v>48</v>
       </c>
-      <c r="I120" s="19">
+      <c r="I120" s="18">
         <f>B14/B9*B15^2*1.5*B25/1000</f>
         <v>0.34320000000000006</v>
       </c>
-      <c r="J120" s="20" t="s">
+      <c r="J120" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="19"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="19"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="19"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="19"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -4248,11 +4244,11 @@
       <c r="D125" t="s">
         <v>68</v>
       </c>
-      <c r="I125" s="19">
+      <c r="I125" s="18">
         <f>I90*B23+B17</f>
         <v>77.75200000000001</v>
       </c>
-      <c r="J125" s="20" t="s">
+      <c r="J125" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4267,11 +4263,11 @@
       <c r="C126" t="s">
         <v>46</v>
       </c>
-      <c r="I126" s="19">
+      <c r="I126" s="18">
         <f>I112*B23+B17</f>
         <v>60.600020031250004</v>
       </c>
-      <c r="J126" s="20" t="s">
+      <c r="J126" s="19" t="s">
         <v>46</v>
       </c>
       <c r="K126">
@@ -4290,11 +4286,11 @@
       <c r="C127" t="s">
         <v>46</v>
       </c>
-      <c r="I127" s="19">
+      <c r="I127" s="18">
         <f>I120*B23+B17</f>
         <v>57.160000000000004</v>
       </c>
-      <c r="J127" s="20" t="s">
+      <c r="J127" s="19" t="s">
         <v>46</v>
       </c>
       <c r="K127">
@@ -4303,12 +4299,12 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I128" s="21"/>
-      <c r="J128" s="22"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B129">
         <f>B125-B102*$B$22</f>
@@ -4318,12 +4314,12 @@
         <v>46</v>
       </c>
       <c r="D129" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B130">
         <f>B126-B112*$B$22</f>
@@ -4335,7 +4331,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B131">
         <f>B127-B120*$B$22</f>
@@ -4350,8 +4346,11 @@
         <v>72</v>
       </c>
       <c r="B133">
-        <f>B14*0.95</f>
-        <v>43.89</v>
+        <f>B14</f>
+        <v>46.2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4361,98 +4360,103 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B137">
         <v>20000</v>
       </c>
       <c r="C137" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D137" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>76</v>
-      </c>
-      <c r="B139">
+        <v>173</v>
+      </c>
+      <c r="B139" s="14">
         <f>B137*((B14*(1.241/1.211-0.128)-1))</f>
         <v>808618.17341040459</v>
       </c>
       <c r="C139" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>76</v>
-      </c>
-      <c r="B140">
-        <f>806000</f>
-        <v>806000</v>
+      <c r="B140" s="3">
+        <f>820000</f>
+        <v>820000</v>
       </c>
       <c r="C140" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>90</v>
-      </c>
-      <c r="B142">
+        <v>176</v>
+      </c>
+      <c r="B142" s="14">
         <f>B140*B137*0.833/((B137*B14*1.241/1.211)-B137-B140)</f>
-        <v>111075.69474992831</v>
+        <v>127805.94851827821</v>
       </c>
       <c r="C142" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B143">
-        <v>111000</v>
+      <c r="B143" s="3">
+        <v>120000</v>
       </c>
       <c r="C143" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>89</v>
-      </c>
-      <c r="B144">
+        <v>175</v>
+      </c>
+      <c r="B144" s="14">
         <f>0.2*B143</f>
-        <v>22200</v>
+        <v>24000</v>
       </c>
       <c r="C144" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B145">
-        <f>22100</f>
-        <v>22100</v>
+      <c r="B145" s="3">
+        <f>24000</f>
+        <v>24000</v>
       </c>
       <c r="C145" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>91</v>
-      </c>
-      <c r="B146">
+        <v>87</v>
+      </c>
+      <c r="B146" s="14">
         <f>1/(500*B145)*10^(9)</f>
-        <v>90.497737556561077</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="C146" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="3">
+        <v>100</v>
+      </c>
+      <c r="C147" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="16" t="s">
-        <v>170</v>
+      <c r="A152" s="15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -4460,11 +4464,11 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B154">
         <f>B140/(B145+B143)*(B156-1.89)</f>
-        <v>45.902549436513901</v>
+        <v>46.995472222222219</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
@@ -4475,11 +4479,11 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B156">
         <f>1.211*(1+(B145+B143)/B137+(B145+B143)/B140)</f>
-        <v>9.4701852729528539</v>
+        <v>10.142863414634146</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -4487,11 +4491,11 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B158">
         <f>(B156-1.89)/(B156-3.3)</f>
-        <v>1.2285182596024737</v>
+        <v>1.2060540908919173</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -4499,11 +4503,11 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B160">
         <f>1-1.89/B156</f>
-        <v>0.80042629098314488</v>
+        <v>0.81366208705195575</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4535,7 +4539,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4543,105 +4547,108 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>96</v>
-      </c>
-      <c r="B173">
+        <v>92</v>
+      </c>
+      <c r="B173" s="14">
         <f>100*((1+4.47/(B10-6))/(1+5.593/(B10-6)))</f>
         <v>95.240113593014883</v>
       </c>
       <c r="C173" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="10">
+      <c r="B174" s="3">
         <f>1+94.2</f>
         <v>95.2</v>
       </c>
       <c r="C174" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>97</v>
-      </c>
-      <c r="B178">
+        <v>93</v>
+      </c>
+      <c r="B178" s="14">
         <f>2.75*B174/(B10-6)</f>
         <v>14.544444444444444</v>
       </c>
       <c r="C178" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B179">
+      <c r="B179" s="3">
         <v>14.3</v>
       </c>
       <c r="C179" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>98</v>
-      </c>
-      <c r="B181">
+        <v>94</v>
+      </c>
+      <c r="B181" s="14">
         <f>1/(1/(100-B174)-1/B179)</f>
         <v>7.2252631578947302</v>
       </c>
       <c r="C181" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B182">
+      <c r="B182" s="3">
         <v>7.32</v>
+      </c>
+      <c r="C182" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>99</v>
-      </c>
-      <c r="B184">
+        <v>95</v>
+      </c>
+      <c r="B184" s="3">
         <f>0.2*B179</f>
         <v>2.8600000000000003</v>
       </c>
       <c r="C184" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>100</v>
-      </c>
-      <c r="B186">
+        <v>96</v>
+      </c>
+      <c r="B186" s="14">
         <f>1/(1000*B184*1000)*10^6</f>
         <v>0.34965034965034958</v>
       </c>
       <c r="C186" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B187">
+      <c r="B187" s="3">
         <f>0.47</f>
         <v>0.47</v>
       </c>
       <c r="C187" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>104</v>
-      </c>
-      <c r="B192">
+        <v>100</v>
+      </c>
+      <c r="B192" s="14">
         <f>0.0497/B15*1000</f>
         <v>12.425000000000001</v>
       </c>
@@ -4650,7 +4657,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B193">
+      <c r="B193" s="3">
         <v>12</v>
       </c>
       <c r="C193" t="s">
@@ -4659,49 +4666,49 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>103</v>
-      </c>
-      <c r="B195">
+        <v>99</v>
+      </c>
+      <c r="B195" s="14">
         <f>1208/(B15*1*B193/1000)/1000</f>
         <v>25.166666666666668</v>
       </c>
       <c r="C195" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B196">
+      <c r="B196" s="3">
         <v>25</v>
       </c>
       <c r="C196" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>105</v>
-      </c>
-      <c r="B198">
+        <v>101</v>
+      </c>
+      <c r="B198" s="14">
         <f>24.3*B196/(B196-24.3)</f>
         <v>867.85714285714369</v>
       </c>
       <c r="C198" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>146</v>
+      <c r="B199" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B208">
         <f>0.0505/(1.3*B11) * 1000</f>
@@ -4742,18 +4749,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="11"/>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4761,23 +4768,23 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" s="13">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4802,12 +4809,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4817,7 +4824,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -4828,7 +4835,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -4839,7 +4846,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <f>8.5</f>
@@ -4917,12 +4924,12 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22">
         <f>0.3*B11/(1-PowerPart!B36/100)</f>
@@ -4934,12 +4941,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <f>B6*PowerPart!B36/100/((Nordic!B12*1000)*Nordic!B22)*10^6</f>
@@ -4951,19 +4958,19 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <f>(B10-B6)*B11/(B10*B12*1000*0.1)*10^6</f>
         <v>120.86922978012085</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4991,12 +4998,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5031,17 +5038,17 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B13">
         <f>150</f>
@@ -5053,7 +5060,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <f>1.6</f>
@@ -5063,12 +5070,12 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B15">
         <v>70</v>
@@ -5077,12 +5084,12 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B16">
         <f>0.56</f>
@@ -5092,20 +5099,20 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B19">
         <f>0.5</f>
@@ -5115,12 +5122,12 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5129,12 +5136,12 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B22">
         <f>B16*B7</f>
@@ -5146,7 +5153,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B24">
         <f>B22*B15+B8</f>
@@ -5156,12 +5163,12 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <f>B22*B14+B24</f>
@@ -5171,17 +5178,17 @@
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B35">
         <f>(B13-B8)/B22-B14-B19</f>
@@ -5191,7 +5198,7 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5202,12 +5209,12 @@
         <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B38">
         <f>B22*B36+B8</f>
@@ -5217,12 +5224,12 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B39">
         <f>B22*B19+B38</f>
@@ -5232,12 +5239,12 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B40">
         <f>B22*B14+B39</f>
@@ -5247,7 +5254,7 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5269,12 +5276,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,20 +5316,20 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B13">
         <f>150</f>
@@ -5348,7 +5355,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B16">
         <f>0.45</f>
@@ -5358,12 +5365,12 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B19">
         <f>B16*B7</f>
@@ -5375,7 +5382,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <f>B19*B15+B8</f>
@@ -5385,7 +5392,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
